--- a/fhir/core/2.2.0/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-condition.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$85</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-condition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1654,21 +1651,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2025,7 +2007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2143,7 +2125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2263,7 +2245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2381,7 +2363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2501,7 +2483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2621,7 +2603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2741,7 +2723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -2861,7 +2843,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>134</v>
       </c>
@@ -2977,7 +2959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3099,7 +3081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3219,7 +3201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3339,7 +3321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3461,7 +3443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>167</v>
       </c>
@@ -3583,7 +3565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>176</v>
       </c>
@@ -3602,7 +3584,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>91</v>
@@ -3703,7 +3685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>190</v>
       </c>
@@ -3722,7 +3704,7 @@
         <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>91</v>
@@ -3823,7 +3805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>201</v>
       </c>
@@ -3842,7 +3824,7 @@
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
@@ -3943,7 +3925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>211</v>
       </c>
@@ -4063,7 +4045,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>221</v>
       </c>
@@ -4076,13 +4058,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -4183,7 +4165,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>235</v>
       </c>
@@ -4301,7 +4283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>241</v>
       </c>
@@ -4421,7 +4403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>246</v>
       </c>
@@ -4543,7 +4525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>257</v>
       </c>
@@ -4667,7 +4649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>260</v>
       </c>
@@ -4785,7 +4767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>262</v>
       </c>
@@ -4905,7 +4887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>264</v>
       </c>
@@ -5027,7 +5009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>274</v>
       </c>
@@ -5147,7 +5129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>282</v>
       </c>
@@ -5267,7 +5249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>290</v>
       </c>
@@ -5387,7 +5369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>298</v>
       </c>
@@ -5509,7 +5491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>308</v>
       </c>
@@ -5631,7 +5613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>311</v>
       </c>
@@ -5749,7 +5731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>312</v>
       </c>
@@ -5869,7 +5851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>313</v>
       </c>
@@ -5991,7 +5973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>315</v>
       </c>
@@ -6111,7 +6093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>316</v>
       </c>
@@ -6231,7 +6213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>317</v>
       </c>
@@ -6351,7 +6333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>318</v>
       </c>
@@ -6473,7 +6455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>319</v>
       </c>
@@ -6597,7 +6579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>322</v>
       </c>
@@ -6715,7 +6697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>323</v>
       </c>
@@ -6835,7 +6817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>324</v>
       </c>
@@ -6957,7 +6939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>326</v>
       </c>
@@ -7077,7 +7059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>327</v>
       </c>
@@ -7197,7 +7179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>328</v>
       </c>
@@ -7317,7 +7299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>329</v>
       </c>
@@ -7439,7 +7421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>330</v>
       </c>
@@ -7563,7 +7545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>333</v>
       </c>
@@ -7681,7 +7663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>334</v>
       </c>
@@ -7801,7 +7783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>335</v>
       </c>
@@ -7923,7 +7905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>337</v>
       </c>
@@ -8043,7 +8025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>338</v>
       </c>
@@ -8163,7 +8145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>339</v>
       </c>
@@ -8283,7 +8265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>340</v>
       </c>
@@ -8405,7 +8387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>341</v>
       </c>
@@ -8529,7 +8511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>344</v>
       </c>
@@ -8647,7 +8629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>345</v>
       </c>
@@ -8767,7 +8749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>346</v>
       </c>
@@ -8889,7 +8871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>348</v>
       </c>
@@ -9009,7 +8991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>349</v>
       </c>
@@ -9129,7 +9111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>350</v>
       </c>
@@ -9249,7 +9231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>351</v>
       </c>
@@ -9371,7 +9353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>352</v>
       </c>
@@ -9493,7 +9475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>360</v>
       </c>
@@ -9613,7 +9595,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>369</v>
       </c>
@@ -9632,7 +9614,7 @@
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>79</v>
@@ -9733,7 +9715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>379</v>
       </c>
@@ -9853,7 +9835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>388</v>
       </c>
@@ -9973,7 +9955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>397</v>
       </c>
@@ -10093,7 +10075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>404</v>
       </c>
@@ -10211,7 +10193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>411</v>
       </c>
@@ -10329,7 +10311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>417</v>
       </c>
@@ -10447,7 +10429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>424</v>
       </c>
@@ -10565,7 +10547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>430</v>
       </c>
@@ -10683,7 +10665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>431</v>
       </c>
@@ -10803,7 +10785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>432</v>
       </c>
@@ -10925,7 +10907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>437</v>
       </c>
@@ -11043,7 +11025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>444</v>
       </c>
@@ -11161,7 +11143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>449</v>
       </c>
@@ -11279,7 +11261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>455</v>
       </c>
@@ -11399,7 +11381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>461</v>
       </c>
@@ -11517,7 +11499,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>462</v>
       </c>
@@ -11637,7 +11619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>463</v>
       </c>
@@ -11759,7 +11741,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>464</v>
       </c>
@@ -11877,7 +11859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>473</v>
       </c>
@@ -11995,7 +11977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>477</v>
       </c>
@@ -12114,24 +12096,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP85">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fhir/core/2.2.0/StructureDefinition-dk-core-condition.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
